--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodiness.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodiness.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>PFT Family_Woodiness</t>
+          <t>PFT</t>
         </is>
       </c>
     </row>

--- a/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodiness.xlsx
+++ b/speciesMappingExampleLists/102ae489-04e3-481d-97df-45905837dc1a_Species__GBIFList__PFTFamilyWoodiness.xlsx
@@ -449,7 +449,7 @@
       <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>not found</t>
         </is>
       </c>
     </row>
@@ -473,7 +473,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -485,7 +485,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -509,7 +509,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -1049,7 +1049,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>not assigned</t>
+          <t>(woody)</t>
         </is>
       </c>
     </row>
